--- a/data_frame/sample data.xlsx
+++ b/data_frame/sample data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24700" windowHeight="11760"/>
+    <workbookView windowWidth="20490" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -116,14 +116,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -132,9 +124,40 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -154,17 +177,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,22 +202,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,7 +231,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,23 +239,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,27 +255,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,19 +275,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,55 +419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,97 +431,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,6 +492,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -526,21 +541,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -557,6 +557,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -566,26 +575,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,152 +594,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -755,22 +755,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1101,20 +1086,20 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="16.1484375" customWidth="1"/>
-    <col min="2" max="2" width="13.9296875" customWidth="1"/>
-    <col min="3" max="3" width="13.4140625" customWidth="1"/>
-    <col min="4" max="4" width="15.75" customWidth="1"/>
-    <col min="5" max="5" width="17.828125" customWidth="1"/>
-    <col min="8" max="8" width="12.6328125" customWidth="1"/>
+    <col min="1" max="1" width="16.1481481481481" customWidth="1"/>
+    <col min="2" max="2" width="21.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="22.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="19.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="17.8296296296296" customWidth="1"/>
+    <col min="8" max="8" width="12.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" ht="15.75" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1148,109 +1133,109 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="12"/>
+      <c r="M1" s="7"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" ht="15.75" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="4">
         <v>100</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="12"/>
+      <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" ht="15.75" spans="1:13">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="12"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" ht="15.75" spans="1:13">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="12"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" ht="15.75" spans="1:13">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="12"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="12"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
